--- a/Code/Results/Cases/Case_3_101/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_101/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8305232071538171</v>
+        <v>0.7400215443108777</v>
       </c>
       <c r="C2">
-        <v>0.08286729784873614</v>
+        <v>0.06991220709525692</v>
       </c>
       <c r="D2">
-        <v>0.05433239285253677</v>
+        <v>0.02506600627322797</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.227950751125121</v>
+        <v>5.700814329882093</v>
       </c>
       <c r="G2">
-        <v>0.0008598938347135137</v>
+        <v>0.002622067671864311</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2440110046914299</v>
+        <v>0.2942163618212561</v>
       </c>
       <c r="K2">
-        <v>0.8213074308766863</v>
+        <v>0.7310898725474715</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2307189309986626</v>
+        <v>0.313472079305825</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7248050887650663</v>
+        <v>0.7226644983766448</v>
       </c>
       <c r="C3">
-        <v>0.07077545649140404</v>
+        <v>0.06891224525639927</v>
       </c>
       <c r="D3">
-        <v>0.04656341720328783</v>
+        <v>0.02470331618800969</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.545581358311551</v>
+        <v>5.50012605520547</v>
       </c>
       <c r="G3">
-        <v>0.0008685113463191496</v>
+        <v>0.002627042174946926</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2227261149146926</v>
+        <v>0.2895808351353821</v>
       </c>
       <c r="K3">
-        <v>0.7140219344479704</v>
+        <v>0.7151414572838917</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.203457110197462</v>
+        <v>0.3117306321930222</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6616918911404639</v>
+        <v>0.7126990819151899</v>
       </c>
       <c r="C4">
-        <v>0.06363462519458096</v>
+        <v>0.06840214110688692</v>
       </c>
       <c r="D4">
-        <v>0.04192255362960395</v>
+        <v>0.024535234021279</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.133467382694676</v>
+        <v>5.377380857029863</v>
       </c>
       <c r="G4">
-        <v>0.0008739348110028241</v>
+        <v>0.002630254225390262</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2099860964056077</v>
+        <v>0.2868389137293406</v>
       </c>
       <c r="K4">
-        <v>0.6500999230471223</v>
+        <v>0.7060995805327224</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1873514575650788</v>
+        <v>0.3109649248613024</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6363766750419586</v>
+        <v>0.7088116744787953</v>
       </c>
       <c r="C5">
-        <v>0.06078760014523255</v>
+        <v>0.06822026226190303</v>
       </c>
       <c r="D5">
-        <v>0.04005874714139424</v>
+        <v>0.02448031369384296</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.967016067609705</v>
+        <v>5.327477556254024</v>
       </c>
       <c r="G5">
-        <v>0.0008761799194001708</v>
+        <v>0.002631602952586509</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2048687408153498</v>
+        <v>0.2857477154179335</v>
       </c>
       <c r="K5">
-        <v>0.6244887154202274</v>
+        <v>0.7026031470305014</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1809323497697406</v>
+        <v>0.3107291120810345</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6321961659517967</v>
+        <v>0.7081766458878747</v>
       </c>
       <c r="C6">
-        <v>0.06031842308155433</v>
+        <v>0.06819162761671294</v>
       </c>
       <c r="D6">
-        <v>0.03975077511818625</v>
+        <v>0.02447200947561612</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.939460277675551</v>
+        <v>5.319198066501741</v>
       </c>
       <c r="G6">
-        <v>0.0008765548803930132</v>
+        <v>0.00263182931499454</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2040232626685139</v>
+        <v>0.2855681004982813</v>
       </c>
       <c r="K6">
-        <v>0.6202609497690474</v>
+        <v>0.7020339191212059</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1798747454069485</v>
+        <v>0.3106945558536616</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6613489065834131</v>
+        <v>0.7126459526814415</v>
       </c>
       <c r="C7">
-        <v>0.06359598499261665</v>
+        <v>0.06839958314954231</v>
       </c>
       <c r="D7">
-        <v>0.04189731329409341</v>
+        <v>0.02453443859241133</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.131216835053777</v>
+        <v>5.376707377655322</v>
       </c>
       <c r="G7">
-        <v>0.0008739649454769793</v>
+        <v>0.002630272253358513</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2099167917221649</v>
+        <v>0.2868240916315941</v>
       </c>
       <c r="K7">
-        <v>0.6497528168349476</v>
+        <v>0.7060516650570889</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1872643229470015</v>
+        <v>0.3109614361449431</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7936680068692112</v>
+        <v>0.7338929837803221</v>
       </c>
       <c r="C8">
-        <v>0.07863386598390321</v>
+        <v>0.06954578244769039</v>
       </c>
       <c r="D8">
-        <v>0.05162358232556841</v>
+        <v>0.02492952082802447</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.991095930480583</v>
+        <v>5.631515351123824</v>
       </c>
       <c r="G8">
-        <v>0.0008628387902565757</v>
+        <v>0.002623750237117082</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2365983925188857</v>
+        <v>0.292596336267863</v>
       </c>
       <c r="K8">
-        <v>0.7838767523985268</v>
+        <v>0.7254347657665221</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.221178081960165</v>
+        <v>0.3128085571751313</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.069836813900338</v>
+        <v>0.7810702839823591</v>
       </c>
       <c r="C9">
-        <v>0.1107977346068196</v>
+        <v>0.07262386028706658</v>
       </c>
       <c r="D9">
-        <v>0.07197922836442672</v>
+        <v>0.02614481582664752</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.743663519928788</v>
+        <v>6.135188310761436</v>
       </c>
       <c r="G9">
-        <v>0.0008419833365909961</v>
+        <v>0.002612205363109728</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2919537084308246</v>
+        <v>0.304747523426613</v>
       </c>
       <c r="K9">
-        <v>1.065058338527251</v>
+        <v>0.7694275219746203</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2934692673229904</v>
+        <v>0.3188453753830487</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.286723908814167</v>
+        <v>0.8191284947822908</v>
       </c>
       <c r="C10">
-        <v>0.1367314677640223</v>
+        <v>0.07540068205628359</v>
       </c>
       <c r="D10">
-        <v>0.08811703848581942</v>
+        <v>0.02731641654120409</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.09032110933879</v>
+        <v>6.507987489308078</v>
       </c>
       <c r="G10">
-        <v>0.0008271129184322007</v>
+        <v>0.002604473235312102</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3351343234514417</v>
+        <v>0.3141891724333732</v>
       </c>
       <c r="K10">
-        <v>1.286934866059312</v>
+        <v>0.8054403338308873</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3513090454690797</v>
+        <v>0.324762711178181</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.389417714602388</v>
+        <v>0.8371883230258561</v>
       </c>
       <c r="C11">
-        <v>0.1492063925046665</v>
+        <v>0.07677788037881328</v>
       </c>
       <c r="D11">
-        <v>0.0958189326453649</v>
+        <v>0.0279121429625917</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.72056317843442</v>
+        <v>6.67825145877282</v>
       </c>
       <c r="G11">
-        <v>0.0008204115686449819</v>
+        <v>0.002601116606448463</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3554946731899378</v>
+        <v>0.3185977053946516</v>
       </c>
       <c r="K11">
-        <v>1.392291435509605</v>
+        <v>0.8226351735608262</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3789608636674231</v>
+        <v>0.3277788342285604</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.428980627190271</v>
+        <v>0.8441351235752848</v>
       </c>
       <c r="C12">
-        <v>0.1540451214160043</v>
+        <v>0.07731594506769568</v>
       </c>
       <c r="D12">
-        <v>0.09879734130447559</v>
+        <v>0.02814693283512071</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.9622164412915</v>
+        <v>6.742828176019657</v>
       </c>
       <c r="G12">
-        <v>0.0008178797327441482</v>
+        <v>0.002599868508248739</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3633242378688948</v>
+        <v>0.3202835315121888</v>
       </c>
       <c r="K12">
-        <v>1.432930092109274</v>
+        <v>0.8292639784884557</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3896549749965388</v>
+        <v>0.3289677684637056</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.42042836372741</v>
+        <v>0.8426341968151121</v>
       </c>
       <c r="C13">
-        <v>0.1529976077495263</v>
+        <v>0.07719932465680301</v>
       </c>
       <c r="D13">
-        <v>0.09815296214767244</v>
+        <v>0.0280959545832502</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.9100309717918</v>
+        <v>6.728915843959953</v>
       </c>
       <c r="G13">
-        <v>0.0008184248070564105</v>
+        <v>0.002600136288218366</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3616323992593919</v>
+        <v>0.319919727346516</v>
       </c>
       <c r="K13">
-        <v>1.424142957456837</v>
+        <v>0.8278311104571685</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.387341362588792</v>
+        <v>0.3287096264209808</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.392658457625913</v>
+        <v>0.8377576742444717</v>
       </c>
       <c r="C14">
-        <v>0.1496020695997089</v>
+        <v>0.0768218147059514</v>
       </c>
       <c r="D14">
-        <v>0.09606266603226032</v>
+        <v>0.02793127384460092</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.74038128911735</v>
+        <v>6.683562166325999</v>
       </c>
       <c r="G14">
-        <v>0.0008202031767990795</v>
+        <v>0.002601013464587443</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3561363185143023</v>
+        <v>0.3187360698991881</v>
       </c>
       <c r="K14">
-        <v>1.395619260964367</v>
+        <v>0.8231781707372647</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3798360175481292</v>
+        <v>0.3278757098066833</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.375739548789426</v>
+        <v>0.8347847355639715</v>
       </c>
       <c r="C15">
-        <v>0.1475377053210565</v>
+        <v>0.07659273886422113</v>
       </c>
       <c r="D15">
-        <v>0.09479067636146254</v>
+        <v>0.02783160566811205</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.63687052039791</v>
+        <v>6.655795068470752</v>
       </c>
       <c r="G15">
-        <v>0.0008212931327411531</v>
+        <v>0.002601553749768073</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.352785902758157</v>
+        <v>0.3180131854268495</v>
       </c>
       <c r="K15">
-        <v>1.378247765808453</v>
+        <v>0.8203434318220388</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3752687841692435</v>
+        <v>0.3273710105987675</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.280101596393109</v>
+        <v>0.8179633176756624</v>
       </c>
       <c r="C16">
-        <v>0.1359312593605608</v>
+        <v>0.07531298625363547</v>
       </c>
       <c r="D16">
-        <v>0.08762178455772585</v>
+        <v>0.02727876235142901</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.04952604493724</v>
+        <v>6.496874300494852</v>
       </c>
       <c r="G16">
-        <v>0.0008275518700673486</v>
+        <v>0.002604695822303427</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3338195127213197</v>
+        <v>0.3139033557548032</v>
       </c>
       <c r="K16">
-        <v>1.280147337681825</v>
+        <v>0.8043330153238912</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3495313938933506</v>
+        <v>0.324572139717425</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.222527066473191</v>
+        <v>0.8078356044377699</v>
       </c>
       <c r="C17">
-        <v>0.1289961645337172</v>
+        <v>0.07455720929154097</v>
       </c>
       <c r="D17">
-        <v>0.08332299323767245</v>
+        <v>0.02695581018733861</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.694034622104596</v>
+        <v>6.399557657238518</v>
       </c>
       <c r="G17">
-        <v>0.0008314054068300238</v>
+        <v>0.002606664461130236</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3223789570551929</v>
+        <v>0.311411237976003</v>
       </c>
       <c r="K17">
-        <v>1.221170057372348</v>
+        <v>0.7947196947414739</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3341058391202196</v>
+        <v>0.3229382957831319</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.189784695284516</v>
+        <v>0.8020806865741292</v>
       </c>
       <c r="C18">
-        <v>0.1250698809453041</v>
+        <v>0.07413322789577137</v>
       </c>
       <c r="D18">
-        <v>0.08088372336954563</v>
+        <v>0.02677595321775783</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.491195114702805</v>
+        <v>6.343647044056553</v>
       </c>
       <c r="G18">
-        <v>0.0008336280347438391</v>
+        <v>0.002607811909225894</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3158650638665819</v>
+        <v>0.3099885133083689</v>
       </c>
       <c r="K18">
-        <v>1.187657112208683</v>
+        <v>0.7892667960275901</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3253575760877183</v>
+        <v>0.3220290664535455</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.178760050954651</v>
+        <v>0.8001442243244412</v>
       </c>
       <c r="C19">
-        <v>0.1237507727849021</v>
+        <v>0.07399151182653441</v>
       </c>
       <c r="D19">
-        <v>0.08006326135787134</v>
+        <v>0.02671606412651784</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.422784069515302</v>
+        <v>6.324727421525154</v>
       </c>
       <c r="G19">
-        <v>0.0008343817323761992</v>
+        <v>0.002608203019443249</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3136705129141291</v>
+        <v>0.309508633953314</v>
       </c>
       <c r="K19">
-        <v>1.176377486062478</v>
+        <v>0.7874336449601174</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3224160252176844</v>
+        <v>0.3217264531173143</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.228616722083984</v>
+        <v>0.8089064398795358</v>
       </c>
       <c r="C20">
-        <v>0.1297278209215733</v>
+        <v>0.0746365522905279</v>
       </c>
       <c r="D20">
-        <v>0.08377709425694491</v>
+        <v>0.02698957744942021</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.731705492333873</v>
+        <v>6.40991059320109</v>
       </c>
       <c r="G20">
-        <v>0.0008309945745126335</v>
+        <v>0.002606453330425839</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3235898384556748</v>
+        <v>0.3116754226241909</v>
       </c>
       <c r="K20">
-        <v>1.227405212786152</v>
+        <v>0.7957351342626282</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3357348651480478</v>
+        <v>0.323109061988049</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.400796006835975</v>
+        <v>0.8391870935419661</v>
       </c>
       <c r="C21">
-        <v>0.1505961564889589</v>
+        <v>0.07693224812605592</v>
       </c>
       <c r="D21">
-        <v>0.0966748710912384</v>
+        <v>0.02797939343769684</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.79012629883567</v>
+        <v>6.696880853237303</v>
       </c>
       <c r="G21">
-        <v>0.0008196806966456093</v>
+        <v>0.002600755194130097</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3577472645527848</v>
+        <v>0.3190832926644873</v>
       </c>
       <c r="K21">
-        <v>1.403976291621632</v>
+        <v>0.8245416578244829</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3820342057361614</v>
+        <v>0.3281193800530673</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.517313804412368</v>
+        <v>0.8596066360339591</v>
       </c>
       <c r="C22">
-        <v>0.1649136298727143</v>
+        <v>0.07852915587297105</v>
       </c>
       <c r="D22">
-        <v>0.1054706044132274</v>
+        <v>0.02868001002023846</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.49957684102708</v>
+        <v>6.885025843900564</v>
       </c>
       <c r="G22">
-        <v>0.0008123184953629918</v>
+        <v>0.002597165042162771</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3807771886730507</v>
+        <v>0.3240204606677679</v>
       </c>
       <c r="K22">
-        <v>1.523763693756138</v>
+        <v>0.8440535424253994</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4136103907813649</v>
+        <v>0.3316667414640904</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.454726002304426</v>
+        <v>0.8486505760978389</v>
       </c>
       <c r="C23">
-        <v>0.1572035962575313</v>
+        <v>0.07766797083169763</v>
       </c>
       <c r="D23">
-        <v>0.1007389674918002</v>
+        <v>0.02830110418145182</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.11914146437653</v>
+        <v>6.784553603937468</v>
       </c>
       <c r="G23">
-        <v>0.0008162461071945985</v>
+        <v>0.002599068964474509</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3684150604087222</v>
+        <v>0.3213766138366765</v>
       </c>
       <c r="K23">
-        <v>1.459390233694961</v>
+        <v>0.8335767661375826</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3966259442334916</v>
+        <v>0.329748429657883</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.225862480749157</v>
+        <v>0.8084221045273523</v>
       </c>
       <c r="C24">
-        <v>0.129396850980072</v>
+        <v>0.07460064854845427</v>
       </c>
       <c r="D24">
-        <v>0.08357169574470191</v>
+        <v>0.02697429317877464</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.714669737512224</v>
+        <v>6.405229912734541</v>
       </c>
       <c r="G24">
-        <v>0.0008311802889946485</v>
+        <v>0.002606548733927934</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3230422025996234</v>
+        <v>0.3115559535215056</v>
       </c>
       <c r="K24">
-        <v>1.224585080014293</v>
+        <v>0.7952758238305648</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3349980106454424</v>
+        <v>0.3230317648741163</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9929726258436062</v>
+        <v>0.7677137287984976</v>
       </c>
       <c r="C25">
-        <v>0.1017459353170693</v>
+        <v>0.07170132632137438</v>
       </c>
       <c r="D25">
-        <v>0.06629661085069927</v>
+        <v>0.02576783797189108</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.260650918068734</v>
+        <v>5.998471334376376</v>
       </c>
       <c r="G25">
-        <v>0.0008475352471416218</v>
+        <v>0.002615196223590588</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2765901675679601</v>
+        <v>0.3013705302039966</v>
       </c>
       <c r="K25">
-        <v>0.9866415567913691</v>
+        <v>0.7568813310563201</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2731779143997528</v>
+        <v>0.3169527323609742</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_101/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_101/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7400215443108777</v>
+        <v>0.8305232071539308</v>
       </c>
       <c r="C2">
-        <v>0.06991220709525692</v>
+        <v>0.08286729784941826</v>
       </c>
       <c r="D2">
-        <v>0.02506600627322797</v>
+        <v>0.05433239285269309</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5.700814329882093</v>
+        <v>7.227950751125178</v>
       </c>
       <c r="G2">
-        <v>0.002622067671864311</v>
+        <v>0.0008598938346963001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2942163618212561</v>
+        <v>0.2440110046916999</v>
       </c>
       <c r="K2">
-        <v>0.7310898725474715</v>
+        <v>0.8213074308767148</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.313472079305825</v>
+        <v>0.2307189309986626</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7226644983766448</v>
+        <v>0.7248050887650948</v>
       </c>
       <c r="C3">
-        <v>0.06891224525639927</v>
+        <v>0.07077545649129036</v>
       </c>
       <c r="D3">
-        <v>0.02470331618800969</v>
+        <v>0.04656341720284729</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.50012605520547</v>
+        <v>6.545581358311608</v>
       </c>
       <c r="G3">
-        <v>0.002627042174946926</v>
+        <v>0.0008685113462843173</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2895808351353821</v>
+        <v>0.2227261149145789</v>
       </c>
       <c r="K3">
-        <v>0.7151414572838917</v>
+        <v>0.7140219344480272</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3117306321930222</v>
+        <v>0.2034571101974798</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7126990819151899</v>
+        <v>0.6616918911404639</v>
       </c>
       <c r="C4">
-        <v>0.06840214110688692</v>
+        <v>0.06363462519421148</v>
       </c>
       <c r="D4">
-        <v>0.024535234021279</v>
+        <v>0.04192255362936947</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.377380857029863</v>
+        <v>6.133467382694704</v>
       </c>
       <c r="G4">
-        <v>0.002630254225390262</v>
+        <v>0.0008739348110015239</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2868389137293406</v>
+        <v>0.2099860964055864</v>
       </c>
       <c r="K4">
-        <v>0.7060995805327224</v>
+        <v>0.6500999230470512</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3109649248613024</v>
+        <v>0.1873514575650752</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7088116744787953</v>
+        <v>0.6363766750420439</v>
       </c>
       <c r="C5">
-        <v>0.06822026226190303</v>
+        <v>0.06078760014547413</v>
       </c>
       <c r="D5">
-        <v>0.02448031369384296</v>
+        <v>0.04005874714171398</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.327477556254024</v>
+        <v>5.967016067609734</v>
       </c>
       <c r="G5">
-        <v>0.002631602952586509</v>
+        <v>0.0008761799194575017</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2857477154179335</v>
+        <v>0.2048687408153498</v>
       </c>
       <c r="K5">
-        <v>0.7026031470305014</v>
+        <v>0.6244887154203127</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3107291120810345</v>
+        <v>0.1809323497697513</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7081766458878747</v>
+        <v>0.6321961659519388</v>
       </c>
       <c r="C6">
-        <v>0.06819162761671294</v>
+        <v>0.06031842308161117</v>
       </c>
       <c r="D6">
-        <v>0.02447200947561612</v>
+        <v>0.03975077511803704</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.319198066501741</v>
+        <v>5.939460277675494</v>
       </c>
       <c r="G6">
-        <v>0.00263182931499454</v>
+        <v>0.0008765548803484347</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2855681004982813</v>
+        <v>0.2040232626685707</v>
       </c>
       <c r="K6">
-        <v>0.7020339191212059</v>
+        <v>0.6202609497691327</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3106945558536616</v>
+        <v>0.1798747454069591</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7126459526814415</v>
+        <v>0.6613489065837541</v>
       </c>
       <c r="C7">
-        <v>0.06839958314954231</v>
+        <v>0.06359598499277297</v>
       </c>
       <c r="D7">
-        <v>0.02453443859241133</v>
+        <v>0.04189731329422841</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.376707377655322</v>
+        <v>6.131216835053834</v>
       </c>
       <c r="G7">
-        <v>0.002630272253358513</v>
+        <v>0.0008739649453698722</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2868240916315941</v>
+        <v>0.2099167917221365</v>
       </c>
       <c r="K7">
-        <v>0.7060516650570889</v>
+        <v>0.6497528168348339</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3109614361449431</v>
+        <v>0.1872643229470121</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7338929837803221</v>
+        <v>0.7936680068686996</v>
       </c>
       <c r="C8">
-        <v>0.06954578244769039</v>
+        <v>0.07863386598371847</v>
       </c>
       <c r="D8">
-        <v>0.02492952082802447</v>
+        <v>0.05162358232551867</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5.631515351123824</v>
+        <v>6.991095930480583</v>
       </c>
       <c r="G8">
-        <v>0.002623750237117082</v>
+        <v>0.0008628387903429104</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.292596336267863</v>
+        <v>0.2365983925188999</v>
       </c>
       <c r="K8">
-        <v>0.7254347657665221</v>
+        <v>0.7838767523986121</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3128085571751313</v>
+        <v>0.2211780819601721</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7810702839823591</v>
+        <v>1.06983681390048</v>
       </c>
       <c r="C9">
-        <v>0.07262386028706658</v>
+        <v>0.1107977346063365</v>
       </c>
       <c r="D9">
-        <v>0.02614481582664752</v>
+        <v>0.0719792283644054</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>6.135188310761436</v>
+        <v>8.743663519928873</v>
       </c>
       <c r="G9">
-        <v>0.002612205363109728</v>
+        <v>0.0008419833366960172</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.304747523426613</v>
+        <v>0.2919537084307962</v>
       </c>
       <c r="K9">
-        <v>0.7694275219746203</v>
+        <v>1.065058338527535</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3188453753830487</v>
+        <v>0.2934692673229762</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8191284947822908</v>
+        <v>1.286723908814224</v>
       </c>
       <c r="C10">
-        <v>0.07540068205628359</v>
+        <v>0.1367314677644913</v>
       </c>
       <c r="D10">
-        <v>0.02731641654120409</v>
+        <v>0.08811703848559915</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6.507987489308078</v>
+        <v>10.09032110933859</v>
       </c>
       <c r="G10">
-        <v>0.002604473235312102</v>
+        <v>0.0008271129184339771</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3141891724333732</v>
+        <v>0.3351343234512143</v>
       </c>
       <c r="K10">
-        <v>0.8054403338308873</v>
+        <v>1.28693486605934</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.324762711178181</v>
+        <v>0.3513090454690868</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8371883230258561</v>
+        <v>1.389417714602644</v>
       </c>
       <c r="C11">
-        <v>0.07677788037881328</v>
+        <v>0.1492063925045812</v>
       </c>
       <c r="D11">
-        <v>0.0279121429625917</v>
+        <v>0.09581893264616781</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>6.67825145877282</v>
+        <v>10.72056317843459</v>
       </c>
       <c r="G11">
-        <v>0.002601116606448463</v>
+        <v>0.0008204115686212122</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3185977053946516</v>
+        <v>0.3554946731898667</v>
       </c>
       <c r="K11">
-        <v>0.8226351735608262</v>
+        <v>1.39229143550952</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3277788342285604</v>
+        <v>0.3789608636674231</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8441351235752848</v>
+        <v>1.428980627189844</v>
       </c>
       <c r="C12">
-        <v>0.07731594506769568</v>
+        <v>0.1540451214161607</v>
       </c>
       <c r="D12">
-        <v>0.02814693283512071</v>
+        <v>0.09879734130486639</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>6.742828176019657</v>
+        <v>10.96221644129128</v>
       </c>
       <c r="G12">
-        <v>0.002599868508248739</v>
+        <v>0.0008178797326503831</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3202835315121888</v>
+        <v>0.3633242378688806</v>
       </c>
       <c r="K12">
-        <v>0.8292639784884557</v>
+        <v>1.432930092109189</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3289677684637056</v>
+        <v>0.3896549749965814</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8426341968151121</v>
+        <v>1.420428363727751</v>
       </c>
       <c r="C13">
-        <v>0.07719932465680301</v>
+        <v>0.15299760775045</v>
       </c>
       <c r="D13">
-        <v>0.0280959545832502</v>
+        <v>0.0981529621476227</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>6.728915843959953</v>
+        <v>10.91003097179197</v>
       </c>
       <c r="G13">
-        <v>0.002600136288218366</v>
+        <v>0.0008184248070558103</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.319919727346516</v>
+        <v>0.3616323992594204</v>
       </c>
       <c r="K13">
-        <v>0.8278311104571685</v>
+        <v>1.424142957457065</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3287096264209808</v>
+        <v>0.3873413625887991</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8377576742444717</v>
+        <v>1.392658457626311</v>
       </c>
       <c r="C14">
-        <v>0.0768218147059514</v>
+        <v>0.1496020696010589</v>
       </c>
       <c r="D14">
-        <v>0.02793127384460092</v>
+        <v>0.09606266603223901</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>6.683562166325999</v>
+        <v>10.74038128911741</v>
       </c>
       <c r="G14">
-        <v>0.002601013464587443</v>
+        <v>0.0008202031766789486</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3187360698991881</v>
+        <v>0.356136318514146</v>
       </c>
       <c r="K14">
-        <v>0.8231781707372647</v>
+        <v>1.395619260964395</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3278757098066833</v>
+        <v>0.379836017548179</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8347847355639715</v>
+        <v>1.37573954878917</v>
       </c>
       <c r="C15">
-        <v>0.07659273886422113</v>
+        <v>0.1475377053206586</v>
       </c>
       <c r="D15">
-        <v>0.02783160566811205</v>
+        <v>0.09479067636200256</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>6.655795068470752</v>
+        <v>10.63687052039774</v>
       </c>
       <c r="G15">
-        <v>0.002601553749768073</v>
+        <v>0.0008212931326442756</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3180131854268495</v>
+        <v>0.3527859027581144</v>
       </c>
       <c r="K15">
-        <v>0.8203434318220388</v>
+        <v>1.37824776580868</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3273710105987675</v>
+        <v>0.3752687841692648</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8179633176756624</v>
+        <v>1.28010159639328</v>
       </c>
       <c r="C16">
-        <v>0.07531298625363547</v>
+        <v>0.1359312593604898</v>
       </c>
       <c r="D16">
-        <v>0.02727876235142901</v>
+        <v>0.08762178455742031</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>6.496874300494852</v>
+        <v>10.04952604493718</v>
       </c>
       <c r="G16">
-        <v>0.002604695822303427</v>
+        <v>0.0008275518700535971</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3139033557548032</v>
+        <v>0.3338195127211776</v>
       </c>
       <c r="K16">
-        <v>0.8043330153238912</v>
+        <v>1.280147337681797</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.324572139717425</v>
+        <v>0.3495313938933293</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8078356044377699</v>
+        <v>1.22252706647339</v>
       </c>
       <c r="C17">
-        <v>0.07455720929154097</v>
+        <v>0.1289961645331772</v>
       </c>
       <c r="D17">
-        <v>0.02695581018733861</v>
+        <v>0.08332299323801351</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6.399557657238518</v>
+        <v>9.694034622104738</v>
       </c>
       <c r="G17">
-        <v>0.002606664461130236</v>
+        <v>0.0008314054066917893</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.311411237976003</v>
+        <v>0.3223789570549513</v>
       </c>
       <c r="K17">
-        <v>0.7947196947414739</v>
+        <v>1.221170057372603</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3229382957831319</v>
+        <v>0.3341058391201841</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8020806865741292</v>
+        <v>1.189784695284345</v>
       </c>
       <c r="C18">
-        <v>0.07413322789577137</v>
+        <v>0.1250698809448636</v>
       </c>
       <c r="D18">
-        <v>0.02677595321775783</v>
+        <v>0.08088372336958116</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>6.343647044056553</v>
+        <v>9.491195114702805</v>
       </c>
       <c r="G18">
-        <v>0.002607811909225894</v>
+        <v>0.0008336280347493806</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3099885133083689</v>
+        <v>0.3158650638668803</v>
       </c>
       <c r="K18">
-        <v>0.7892667960275901</v>
+        <v>1.187657112208854</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3220290664535455</v>
+        <v>0.3253575760877183</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8001442243244412</v>
+        <v>1.178760050954708</v>
       </c>
       <c r="C19">
-        <v>0.07399151182653441</v>
+        <v>0.1237507727849305</v>
       </c>
       <c r="D19">
-        <v>0.02671606412651784</v>
+        <v>0.08006326135811292</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>6.324727421525154</v>
+        <v>9.422784069515188</v>
       </c>
       <c r="G19">
-        <v>0.002608203019443249</v>
+        <v>0.0008343817322666869</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.309508633953314</v>
+        <v>0.3136705129138306</v>
       </c>
       <c r="K19">
-        <v>0.7874336449601174</v>
+        <v>1.176377486062421</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3217264531173143</v>
+        <v>0.3224160252176986</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8089064398795358</v>
+        <v>1.228616722083814</v>
       </c>
       <c r="C20">
-        <v>0.0746365522905279</v>
+        <v>0.1297278209215875</v>
       </c>
       <c r="D20">
-        <v>0.02698957744942021</v>
+        <v>0.08377709425720781</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>6.40991059320109</v>
+        <v>9.731705492333845</v>
       </c>
       <c r="G20">
-        <v>0.002606453330425839</v>
+        <v>0.0008309945744033654</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3116754226241909</v>
+        <v>0.3235898384557458</v>
       </c>
       <c r="K20">
-        <v>0.7957351342626282</v>
+        <v>1.227405212786266</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.323109061988049</v>
+        <v>0.3357348651480478</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8391870935419661</v>
+        <v>1.400796006835606</v>
       </c>
       <c r="C21">
-        <v>0.07693224812605592</v>
+        <v>0.1505961564893568</v>
       </c>
       <c r="D21">
-        <v>0.02797939343769684</v>
+        <v>0.09667487109094708</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>6.696880853237303</v>
+        <v>10.79012629883579</v>
       </c>
       <c r="G21">
-        <v>0.002600755194130097</v>
+        <v>0.0008196806968697395</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3190832926644873</v>
+        <v>0.3577472645528843</v>
       </c>
       <c r="K21">
-        <v>0.8245416578244829</v>
+        <v>1.403976291621831</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3281193800530673</v>
+        <v>0.382034205736133</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8596066360339591</v>
+        <v>1.517313804412083</v>
       </c>
       <c r="C22">
-        <v>0.07852915587297105</v>
+        <v>0.1649136298726859</v>
       </c>
       <c r="D22">
-        <v>0.02868001002023846</v>
+        <v>0.1054706044134406</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>6.885025843900564</v>
+        <v>11.49957684102708</v>
       </c>
       <c r="G22">
-        <v>0.002597165042162771</v>
+        <v>0.0008123184954844805</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3240204606677679</v>
+        <v>0.3807771886730222</v>
       </c>
       <c r="K22">
-        <v>0.8440535424253994</v>
+        <v>1.523763693756138</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3316667414640904</v>
+        <v>0.4136103907814004</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8486505760978389</v>
+        <v>1.454726002304255</v>
       </c>
       <c r="C23">
-        <v>0.07766797083169763</v>
+        <v>0.1572035962580145</v>
       </c>
       <c r="D23">
-        <v>0.02830110418145182</v>
+        <v>0.1007389674917718</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>6.784553603937468</v>
+        <v>11.11914146437653</v>
       </c>
       <c r="G23">
-        <v>0.002599068964474509</v>
+        <v>0.0008162461071870627</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3213766138366765</v>
+        <v>0.368415060408509</v>
       </c>
       <c r="K23">
-        <v>0.8335767661375826</v>
+        <v>1.459390233694876</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.329748429657883</v>
+        <v>0.3966259442335343</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8084221045273523</v>
+        <v>1.225862480749214</v>
       </c>
       <c r="C24">
-        <v>0.07460064854845427</v>
+        <v>0.1293968509810526</v>
       </c>
       <c r="D24">
-        <v>0.02697429317877464</v>
+        <v>0.08357169574478007</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>6.405229912734541</v>
+        <v>9.714669737512139</v>
       </c>
       <c r="G24">
-        <v>0.002606548733927934</v>
+        <v>0.0008311802890099049</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3115559535215056</v>
+        <v>0.3230422025994812</v>
       </c>
       <c r="K24">
-        <v>0.7952758238305648</v>
+        <v>1.224585080014265</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3230317648741163</v>
+        <v>0.3349980106454282</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7677137287984976</v>
+        <v>0.992972625843521</v>
       </c>
       <c r="C25">
-        <v>0.07170132632137438</v>
+        <v>0.1017459353161456</v>
       </c>
       <c r="D25">
-        <v>0.02576783797189108</v>
+        <v>0.06629661085086269</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>5.998471334376376</v>
+        <v>8.260650918068848</v>
       </c>
       <c r="G25">
-        <v>0.002615196223590588</v>
+        <v>0.0008475352471293005</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3013705302039966</v>
+        <v>0.2765901675676901</v>
       </c>
       <c r="K25">
-        <v>0.7568813310563201</v>
+        <v>0.9866415567913975</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3169527323609742</v>
+        <v>0.2731779143997457</v>
       </c>
       <c r="N25">
         <v>0</v>
